--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41593A91-CEB9-4F64-BEF9-12A231178ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1365F7-ED3D-4E45-BACB-A36145F4249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
     <sheet name="MaxCapacityGroup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,18 +78,6 @@
     <t>HydroGeneration</t>
   </si>
   <si>
-    <t>WAT_PS_New</t>
-  </si>
-  <si>
-    <t>WAT_HY_New</t>
-  </si>
-  <si>
-    <t>WAT_PS_Existing</t>
-  </si>
-  <si>
-    <t>WAT_HY_Existing</t>
-  </si>
-  <si>
     <t>periods</t>
   </si>
   <si>
@@ -95,6 +94,18 @@
   </si>
   <si>
     <t>GW- Assume no new hydro is added above the already installed capacity</t>
+  </si>
+  <si>
+    <t>WAT_PS_NEW</t>
+  </si>
+  <si>
+    <t>WAT_HY_NEW</t>
+  </si>
+  <si>
+    <t>WAT_HY_EXISTING</t>
+  </si>
+  <si>
+    <t>WAT_PS_EXISTING</t>
   </si>
 </sst>
 </file>
@@ -424,17 +435,17 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="4" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="4" width="16.86328125" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,26 +480,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -505,28 +516,28 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
@@ -537,10 +548,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2025</v>
       </c>
@@ -551,10 +562,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2030</v>
       </c>
@@ -565,10 +576,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2035</v>
       </c>
@@ -579,10 +590,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2040</v>
       </c>
@@ -593,10 +604,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2045</v>
       </c>
@@ -607,10 +618,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2050</v>
       </c>
@@ -621,10 +632,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -635,10 +646,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2025</v>
       </c>
@@ -649,10 +660,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2030</v>
       </c>
@@ -663,10 +674,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
@@ -677,10 +688,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2040</v>
       </c>
@@ -691,10 +702,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2045</v>
       </c>
@@ -705,10 +716,10 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2050</v>
       </c>
@@ -719,7 +730,7 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1365F7-ED3D-4E45-BACB-A36145F4249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381AB16-8636-4499-9321-A8B0B4433AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
     <sheet name="MaxCapacityGroup" sheetId="2" r:id="rId2"/>
+    <sheet name="TechColor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
   <si>
     <t>Group Name</t>
   </si>
@@ -106,13 +107,361 @@
   </si>
   <si>
     <t>WAT_PS_EXISTING</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Pallet</t>
+  </si>
+  <si>
+    <t>Idx</t>
+  </si>
+  <si>
+    <t>AB_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>tab20b</t>
+  </si>
+  <si>
+    <t>BIT_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>BLQ_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>DFO_CC_EXISTING</t>
+  </si>
+  <si>
+    <t>DFO_GT_EXISTING</t>
+  </si>
+  <si>
+    <t>DFO_IC_EXISTING</t>
+  </si>
+  <si>
+    <t>LFG_GT_EXISTING</t>
+  </si>
+  <si>
+    <t>LFG_IC_EXISTING</t>
+  </si>
+  <si>
+    <t>MWH_BA1H_EXISTING</t>
+  </si>
+  <si>
+    <t>MWH_BA2H_EXISTING</t>
+  </si>
+  <si>
+    <t>NG_CC_EXISTING</t>
+  </si>
+  <si>
+    <t>NG_GT_EXISTING</t>
+  </si>
+  <si>
+    <t>NG_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>NUC_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>OBG_IC_EXISTING</t>
+  </si>
+  <si>
+    <t>SUN_PV_EXISTING</t>
+  </si>
+  <si>
+    <t>WDS_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>WH_ST_EXISTING</t>
+  </si>
+  <si>
+    <t>WND_WT_EXISTING</t>
+  </si>
+  <si>
+    <t>BATT_2H_NEW</t>
+  </si>
+  <si>
+    <t>BATT_4H_NEW</t>
+  </si>
+  <si>
+    <t>BATT_6H_NEW</t>
+  </si>
+  <si>
+    <t>BATT_8H_NEW</t>
+  </si>
+  <si>
+    <t>BIOMASS_CC90_NEW</t>
+  </si>
+  <si>
+    <t>BIOMASS_NEW</t>
+  </si>
+  <si>
+    <t>COAL_95CC_NEW</t>
+  </si>
+  <si>
+    <t>COAL_99CC_NEW</t>
+  </si>
+  <si>
+    <t>COAL_NEW</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_95CC_NEW</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_97CC_NEW</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_NEW</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CT_NEW</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_95CC_NEW</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_97CC_NEW</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_NEW</t>
+  </si>
+  <si>
+    <t>NUCLEAR-AP1000_NEW</t>
+  </si>
+  <si>
+    <t>NUCLEAR-SMR_NEW</t>
+  </si>
+  <si>
+    <t>PV-COMMERCIAL_NEW</t>
+  </si>
+  <si>
+    <t>PV-RESIDENTIAL_NEW</t>
+  </si>
+  <si>
+    <t>PV-UTILITY_NEW</t>
+  </si>
+  <si>
+    <t>WIND-LAND-C8_NEW</t>
+  </si>
+  <si>
+    <t>WIND-OFFSHORE-C6_NEW</t>
+  </si>
+  <si>
+    <t>CO2_STORAGE</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>FT_BIOMASS</t>
+  </si>
+  <si>
+    <t>FT_COAL</t>
+  </si>
+  <si>
+    <t>FT_NG</t>
+  </si>
+  <si>
+    <t>FT_NUCLEAR</t>
+  </si>
+  <si>
+    <t>FT_PETROLEUM</t>
+  </si>
+  <si>
+    <t>TRANSMISSION_INTERREGIONAL</t>
+  </si>
+  <si>
+    <t>TRANSMISSION_REGIONAL</t>
+  </si>
+  <si>
+    <t>Tech Description</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Agricultural By-Products (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Bituminous Coal (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Black Liquor (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Combustion Turbine Using Petroleum (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Combustion Turbine Using Petroleum (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Internal Combustion Engine Using Petroleum (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Combustion Turbine Using Landfill Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Internal Combustion Engine Using Landfill Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Battery  Storage- 1h  (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Battery  Storage- 2h  (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Combustion Turbine Using Natural Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Combustion Turbine Using Natural Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Natural Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Nuclear Turbine (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Internal Combustion Engine Using Other Biomass Gas (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaic - Utility (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Conventional Hydroelectric (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Hydroelectric Pumped Storage (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Wood Waste (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Steam Turbine Using Waste Heat (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Onshore Wind Turbine (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Battery Storage 2h (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Battery Storage 4h (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Battery Storage 6h (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Battery Storage 8h (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Generation From Biomass With 90% Carbon Capture (Technology from NREL ReEDS model  Using BECC-mod)</t>
+  </si>
+  <si>
+    <t>Generation From Biomass (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Generation From Coal With 95% Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Generation From Coal With 99% Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Generation From Coal (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine F-Frame With 95 % of Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine F-Frame With 97 % of Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine F-Frame (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Natural Gas Combustion Turbine F-Frame - Simple Cycle (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine H-Frame With 95 % of Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine H-Frame With 97 % of Carbon Capture (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Natural Gas Turbine H-Frame (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Nuclear Generation Using AP1000 PWR (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Small Modular Nuclear Reactor (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Commercial Solar PV (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Residential Solar PV (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Utility Solar PV (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Conventional Hydroelectric (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Hydroelectric Pumped Storage (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Onshore Wind Turbine Class 8 From NREL ATB 2023  (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>Offshore Wind Turbine Class 6 From NREL ATB 2023  (NREL ATB 2023 Technology)</t>
+  </si>
+  <si>
+    <t>CO2 Storage</t>
+  </si>
+  <si>
+    <t>Energy Distribution</t>
+  </si>
+  <si>
+    <t>Fuel for Generation Technologies that Use Biomass</t>
+  </si>
+  <si>
+    <t>Fuel for Generation Technologies that Use Coal</t>
+  </si>
+  <si>
+    <t>Fuel for Generation Technologies that Use Natural Gas</t>
+  </si>
+  <si>
+    <t>Fuel for Nuclear Generation Technologies</t>
+  </si>
+  <si>
+    <t>Fuel for Generation Technologies that Use Petroleum</t>
+  </si>
+  <si>
+    <t>Transmission Between Different Regions</t>
+  </si>
+  <si>
+    <t>Transmission In the Same Region</t>
+  </si>
+  <si>
+    <t>tab20c</t>
+  </si>
+  <si>
+    <t>tab20</t>
+  </si>
+  <si>
+    <t>Set3</t>
+  </si>
+  <si>
+    <t>Paired</t>
+  </si>
+  <si>
+    <t>tab10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +475,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,17 +552,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C9527-1881-4D6D-BD71-38E11E56DCAB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -736,4 +1161,822 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="82.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="6">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="6">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="7">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="11">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="12">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="3">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="3">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="3">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="3">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="3">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381AB16-8636-4499-9321-A8B0B4433AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AB4B6-5010-4A8E-B32A-FF3FF43DCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>Group Name</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>tab10</t>
+  </si>
+  <si>
+    <t>OCEAN_CURRENT_NEW</t>
+  </si>
+  <si>
+    <t>Set1</t>
   </si>
 </sst>
 </file>
@@ -552,13 +558,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,14 +868,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="4" width="16.86328125" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -916,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -941,14 +946,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -962,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
@@ -976,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2025</v>
       </c>
@@ -990,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2030</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2035</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2040</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2045</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2050</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2025</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2030</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2040</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2045</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2050</v>
       </c>
@@ -1165,33 +1170,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="82.265625" customWidth="1"/>
+    <col min="1" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1205,22 +1210,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1233,49 +1238,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1303,91 +1308,91 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1401,49 +1406,49 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>0</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1457,91 +1462,91 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>11</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>6</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1569,301 +1574,301 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
         <v>9</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
         <v>12</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
         <v>13</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
         <v>14</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
         <v>17</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
         <v>18</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
         <v>19</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -1877,104 +1882,100 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
         <v>13</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C61" s="3"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381AB16-8636-4499-9321-A8B0B4433AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF45206-B3CB-4CBE-A9B8-264DA40B7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
     <sheet name="MaxCapacityGroup" sheetId="2" r:id="rId2"/>
     <sheet name="TechColor" sheetId="3" r:id="rId3"/>
+    <sheet name="SummaryGroupsExistingTech" sheetId="4" r:id="rId4"/>
+    <sheet name="KeepTechList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="162">
   <si>
     <t>Group Name</t>
   </si>
@@ -455,13 +457,88 @@
   </si>
   <si>
     <t>tab10</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Tech11</t>
+  </si>
+  <si>
+    <t>Tech12</t>
+  </si>
+  <si>
+    <t>Tech13</t>
+  </si>
+  <si>
+    <t>Tech14</t>
+  </si>
+  <si>
+    <t>Tech15</t>
+  </si>
+  <si>
+    <t>Tech16</t>
+  </si>
+  <si>
+    <t>Tech17</t>
+  </si>
+  <si>
+    <t>Tech18</t>
+  </si>
+  <si>
+    <t>Tech19</t>
+  </si>
+  <si>
+    <t>Tech20</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>group plots</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>tech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +560,269 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +877,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -548,17 +1071,507 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="10"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,12 +1585,394 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="344">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="44" xr:uid="{C42EF362-9AF1-4B07-AB83-037002DF8BBD}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="45" xr:uid="{3C297759-3D28-4142-9CDB-DF1643DF71EC}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="179" xr:uid="{03382FAC-BF74-4FFA-9B1C-06B3599224DD}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="201" xr:uid="{19E4DA6F-CA23-43F3-9C60-97F23BB59FC2}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="245" xr:uid="{FC924872-CF67-419B-A702-6C35C199B069}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2 2" xfId="333" xr:uid="{D70FEB36-028D-43C8-9CD0-52EF10A0E06D}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="289" xr:uid="{B00D1DF7-9F14-4065-977E-218F75C9C329}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="223" xr:uid="{E362F574-0D4E-4FBA-9DE0-17ED213E5D4B}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3 2" xfId="311" xr:uid="{D9E9BDD8-7B0C-4D86-AA23-686E69DBB493}"/>
+    <cellStyle name="20% - Accent1 2 2 2 4" xfId="267" xr:uid="{EC726F55-7AAB-4326-9521-D2643966E514}"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="190" xr:uid="{80CD9574-F4C7-4F37-90AF-C482E65DEDB0}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="234" xr:uid="{F9F013E4-21F0-4D22-8B75-08687B778E84}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2 2" xfId="322" xr:uid="{CBA25027-1B40-4EFB-AA51-5BBC5B117C20}"/>
+    <cellStyle name="20% - Accent1 2 2 3 3" xfId="278" xr:uid="{87FE0350-B546-4F53-AAD9-45C4DB261AEB}"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="212" xr:uid="{E7EEBDB4-13F0-4CDF-B346-C0E38CA2086F}"/>
+    <cellStyle name="20% - Accent1 2 2 4 2" xfId="300" xr:uid="{20E89253-1D27-4B07-8CFA-542E2FA7F102}"/>
+    <cellStyle name="20% - Accent1 2 2 5" xfId="256" xr:uid="{C463CF02-CD9C-41DE-B7AD-664BF0C45D7A}"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="46" xr:uid="{15A88516-89A4-40B1-8644-9ACE7ECFC529}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="47" xr:uid="{B555CF2F-A0E8-408D-AB9F-00A975CECDEF}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="180" xr:uid="{CE4D6EF1-CF3F-4E48-B8E0-BA10F8DD60BD}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="202" xr:uid="{31F2332A-1684-4388-85B1-DB67570AD3E9}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="246" xr:uid="{F63E030D-1AD2-43F9-9381-DF64397AE5B5}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2 2" xfId="334" xr:uid="{44092651-957F-4C68-9656-4194FCC1F7A9}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="290" xr:uid="{D87454FB-1FFB-42D1-877D-E182DC7E28D4}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="224" xr:uid="{30B6F552-D556-41D2-B8D6-5E2A3219E139}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3 2" xfId="312" xr:uid="{B60B5B18-A05A-4C44-88D9-B860FAD7D3F9}"/>
+    <cellStyle name="20% - Accent2 2 2 2 4" xfId="268" xr:uid="{19D3672B-5AB8-4932-AB3F-E33EE35E2EBC}"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="191" xr:uid="{4656BCAB-C2E9-4C5D-96C9-119C180D9A2B}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="235" xr:uid="{70517928-7445-40C2-B1FE-6D838CA2BD06}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2 2" xfId="323" xr:uid="{877599B5-41A6-498A-AD5D-089B845B13FC}"/>
+    <cellStyle name="20% - Accent2 2 2 3 3" xfId="279" xr:uid="{DD3C43C1-E944-4B2F-8A0D-EBDA6F7B86ED}"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="213" xr:uid="{408105E4-0101-4B69-BFD4-A6BBF5B8390C}"/>
+    <cellStyle name="20% - Accent2 2 2 4 2" xfId="301" xr:uid="{02F62C5C-F0E6-40D7-B68E-95A59D6BE2F3}"/>
+    <cellStyle name="20% - Accent2 2 2 5" xfId="257" xr:uid="{5F3E61EF-A40A-490A-B886-42AA8C0ABCEC}"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="48" xr:uid="{B1785E96-0860-4E19-8AA9-465D40E1BB1B}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="49" xr:uid="{25B3C3B3-43D7-4271-ADAD-406AB9F3AE0D}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="181" xr:uid="{2F00336E-A7F7-4FBF-83BC-933D0FB23DCF}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="203" xr:uid="{9EDE03DF-E303-44E1-81EA-44C3FC77A56A}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="247" xr:uid="{066D8AAA-EBF7-4E7F-B8CA-255042BEC096}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2 2" xfId="335" xr:uid="{4263890C-5148-4482-8534-455C0C3B77C1}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 3" xfId="291" xr:uid="{53099556-FDA0-43EB-8969-5F2400C71BB8}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="225" xr:uid="{812C72DC-DF34-4D5A-A1FD-4C2C8F662A86}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3 2" xfId="313" xr:uid="{C68C8B9F-3143-4EBE-819F-374D4853140F}"/>
+    <cellStyle name="20% - Accent3 2 2 2 4" xfId="269" xr:uid="{68689169-09AC-43D8-877E-252287AA2C04}"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="192" xr:uid="{796357F1-97AD-4C94-93A6-EA030B61B665}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="236" xr:uid="{E68366C6-9B26-46EA-AA33-509A1887DCD3}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2 2" xfId="324" xr:uid="{77AD13E6-63D9-41B6-B65D-22C550908789}"/>
+    <cellStyle name="20% - Accent3 2 2 3 3" xfId="280" xr:uid="{228A61B8-0B4A-4871-A7FC-109B305E5EB0}"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="214" xr:uid="{3016DEA4-96B8-429F-86C9-C75FBB065ABF}"/>
+    <cellStyle name="20% - Accent3 2 2 4 2" xfId="302" xr:uid="{69FEFA10-0288-46E6-9D56-B33432C12FC4}"/>
+    <cellStyle name="20% - Accent3 2 2 5" xfId="258" xr:uid="{051102F4-15D7-413F-9644-B4C981EA7B6D}"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="50" xr:uid="{49C7F69B-770F-4EBD-8CBC-E645053F563A}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="51" xr:uid="{5C07A0E8-83FC-4412-9A2A-D7DA3C61C568}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="182" xr:uid="{78F97CA3-219D-47E8-933A-FA66B4BEC5F5}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="204" xr:uid="{A2AC95FF-9F6D-49E5-B1A2-5EC3DA723A71}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="248" xr:uid="{67F0F335-4A7E-4D91-BD6A-FFDDC8FF9455}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2 2" xfId="336" xr:uid="{D46406BF-D25A-479A-8158-D9629B6F7DA3}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 3" xfId="292" xr:uid="{975F22F0-272F-45A9-B01B-6168976D0FD9}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="226" xr:uid="{E3BACC19-474F-4427-A2F5-6CC730A24CFE}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3 2" xfId="314" xr:uid="{E16527F2-337F-4627-B77A-1962B81DB632}"/>
+    <cellStyle name="20% - Accent4 2 2 2 4" xfId="270" xr:uid="{C8A42A2B-2E5B-4D19-91F1-9871DDCD933D}"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="193" xr:uid="{DF03CCA7-89C3-454C-A5F6-DC5A38CD0CCB}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="237" xr:uid="{815FBECC-0F93-4AC6-8D12-1E08285FDD46}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2 2" xfId="325" xr:uid="{D837BF51-F2B6-4983-9D07-9C89F51AB89F}"/>
+    <cellStyle name="20% - Accent4 2 2 3 3" xfId="281" xr:uid="{06AA74DA-9FBE-4B03-A030-50704F9C3DF5}"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="215" xr:uid="{E2B2DB76-B6BA-4220-95DE-8B1DBE21157F}"/>
+    <cellStyle name="20% - Accent4 2 2 4 2" xfId="303" xr:uid="{87DD89C1-B1C8-4ECD-8FAA-763BA6A64DB2}"/>
+    <cellStyle name="20% - Accent4 2 2 5" xfId="259" xr:uid="{7EF0CBE4-F8F0-492B-8B88-8E480465B855}"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculated" xfId="52" xr:uid="{F7724DC7-EE62-4514-8550-EE59C71649F3}"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 10" xfId="53" xr:uid="{6C7B8776-9BE4-4DF8-BE2A-2BFFFAE6AF47}"/>
+    <cellStyle name="Comma 10 2" xfId="183" xr:uid="{AC464A14-4F01-4BE1-B2B9-F2A7DF652511}"/>
+    <cellStyle name="Comma 10 2 2" xfId="205" xr:uid="{80DCA24B-2CF8-4ED6-8FDA-FA4786C20C9F}"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="249" xr:uid="{73F4D136-F0F2-4917-816D-C9B9C247AB6C}"/>
+    <cellStyle name="Comma 10 2 2 2 2" xfId="337" xr:uid="{811AB07F-46DB-44AF-B484-E4EDDB2FDE30}"/>
+    <cellStyle name="Comma 10 2 2 3" xfId="293" xr:uid="{B1D10E36-2BAD-4FF2-AFFC-FA44489DAAC5}"/>
+    <cellStyle name="Comma 10 2 3" xfId="227" xr:uid="{BD92C770-DEE3-4261-A517-8564C6FDDD7D}"/>
+    <cellStyle name="Comma 10 2 3 2" xfId="315" xr:uid="{C85433D4-1E13-4C32-86A2-DDFFA7790B96}"/>
+    <cellStyle name="Comma 10 2 4" xfId="271" xr:uid="{D05CC090-CD27-4B23-892C-9159DF7D6DD0}"/>
+    <cellStyle name="Comma 10 3" xfId="194" xr:uid="{B290517E-D24F-4CBC-AA4E-AA8FB2098E3E}"/>
+    <cellStyle name="Comma 10 3 2" xfId="238" xr:uid="{242F3207-E2C3-4CBB-9187-5DC1E0535411}"/>
+    <cellStyle name="Comma 10 3 2 2" xfId="326" xr:uid="{E2A424EE-3FA9-4317-925C-211508D5B4F7}"/>
+    <cellStyle name="Comma 10 3 3" xfId="282" xr:uid="{7174CB63-2727-43D1-AA48-C689243242D5}"/>
+    <cellStyle name="Comma 10 4" xfId="216" xr:uid="{01CC1EB3-EFD6-4AF9-96D1-BC56B407A1FD}"/>
+    <cellStyle name="Comma 10 4 2" xfId="304" xr:uid="{1CBA1B75-E04C-4C5F-BD7D-5F60F4896450}"/>
+    <cellStyle name="Comma 10 5" xfId="260" xr:uid="{53071E3F-C34C-4696-ADF5-8C78D17C0388}"/>
+    <cellStyle name="Comma 11" xfId="54" xr:uid="{B9167011-141A-48CB-97B3-1273AF35FAAA}"/>
+    <cellStyle name="Comma 2" xfId="55" xr:uid="{61F16DB6-068C-4A98-B538-EA2BB49F077B}"/>
+    <cellStyle name="Comma 2 2" xfId="56" xr:uid="{595BEF92-D053-4E67-A2FC-F942C8054595}"/>
+    <cellStyle name="Comma 2 2 2" xfId="184" xr:uid="{8364CB3C-B6D3-4508-8084-1B31B7499999}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="206" xr:uid="{4FBCF363-DEA8-4E3A-9E28-E7065E4B4616}"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="250" xr:uid="{6F9F1DE1-1B45-4AE7-A276-CE398766DF1F}"/>
+    <cellStyle name="Comma 2 2 2 2 2 2" xfId="338" xr:uid="{F178F1E4-C573-4CAA-A508-CE1096706F5C}"/>
+    <cellStyle name="Comma 2 2 2 2 3" xfId="294" xr:uid="{563F392D-4AF3-4C81-98D9-C26110C3F130}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="228" xr:uid="{06C0F19C-9427-4376-BBDD-3B5DAADF2D0B}"/>
+    <cellStyle name="Comma 2 2 2 3 2" xfId="316" xr:uid="{0E6253A1-BE43-4DEE-802D-550D7B77DD3D}"/>
+    <cellStyle name="Comma 2 2 2 4" xfId="272" xr:uid="{799C99A1-8FF4-4C97-AAF5-909A94398CEB}"/>
+    <cellStyle name="Comma 2 2 3" xfId="195" xr:uid="{0B99BA43-FB6F-4BB1-B7FA-EDEBDBB7783B}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="239" xr:uid="{12C78808-9E0B-442F-AE82-118D0DB2F471}"/>
+    <cellStyle name="Comma 2 2 3 2 2" xfId="327" xr:uid="{53266908-D1F0-4EDB-A932-8C37F350DFB3}"/>
+    <cellStyle name="Comma 2 2 3 3" xfId="283" xr:uid="{C55EE9D7-9A79-4E16-AD62-52ED7C9BE08E}"/>
+    <cellStyle name="Comma 2 2 4" xfId="217" xr:uid="{D4A3D654-DC09-404C-B3E3-D0AC39D64D9F}"/>
+    <cellStyle name="Comma 2 2 4 2" xfId="305" xr:uid="{9F4F245F-5ED9-4491-9E25-16A9E421DDF9}"/>
+    <cellStyle name="Comma 2 2 5" xfId="261" xr:uid="{1470DF43-E933-4FCB-96D4-8D984820E89F}"/>
+    <cellStyle name="Comma 3" xfId="57" xr:uid="{D76F6BCA-E292-4B75-B005-3009DE99FF81}"/>
+    <cellStyle name="Comma 3 2" xfId="58" xr:uid="{3C0DA90F-F75A-40D2-97FE-7B80309FC77A}"/>
+    <cellStyle name="Comma 3 2 2" xfId="185" xr:uid="{9D493BBA-C9F8-4FE1-8DB3-EDF99424BC48}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="207" xr:uid="{6262789D-9BA2-4AC6-AFDD-35BCE6C972F7}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="251" xr:uid="{F769CC19-FD40-4593-B609-F93F38477E85}"/>
+    <cellStyle name="Comma 3 2 2 2 2 2" xfId="339" xr:uid="{BFFA48A1-5146-4D3C-BB69-AD0E623F9692}"/>
+    <cellStyle name="Comma 3 2 2 2 3" xfId="295" xr:uid="{0E5BCC43-9566-478E-9C27-BB0AF7CE72A5}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="229" xr:uid="{9C13DC16-3A6C-44DF-899D-CE25A456C406}"/>
+    <cellStyle name="Comma 3 2 2 3 2" xfId="317" xr:uid="{5CF1EDAF-76CE-4EDB-BE28-4373698A797E}"/>
+    <cellStyle name="Comma 3 2 2 4" xfId="273" xr:uid="{76CCBA6F-1B05-434C-B9D7-7E6F997D1D3A}"/>
+    <cellStyle name="Comma 3 2 3" xfId="196" xr:uid="{F5F4B479-34DD-4FC0-BA15-E90A70DC1B6E}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="240" xr:uid="{C6E8965E-5BCD-4B73-B92B-C8396E93602F}"/>
+    <cellStyle name="Comma 3 2 3 2 2" xfId="328" xr:uid="{E50C9895-29F5-431C-A554-47BAE244BEFA}"/>
+    <cellStyle name="Comma 3 2 3 3" xfId="284" xr:uid="{C9B99051-ED05-487E-918A-40BECA52EF1C}"/>
+    <cellStyle name="Comma 3 2 4" xfId="218" xr:uid="{90AA3068-1F93-43A1-A873-27858F4CB794}"/>
+    <cellStyle name="Comma 3 2 4 2" xfId="306" xr:uid="{19FF7EF9-59E6-4BC0-AEBB-70FC9974125C}"/>
+    <cellStyle name="Comma 3 2 5" xfId="262" xr:uid="{17B46645-F2EE-42B5-9AB8-31B4D94FF014}"/>
+    <cellStyle name="Comma 4" xfId="59" xr:uid="{DA1B0EC2-E9FF-4322-A7E5-FD3C273212B5}"/>
+    <cellStyle name="Comma 5" xfId="60" xr:uid="{28C78686-4EA7-4E69-AEC7-D86F6A3D6C87}"/>
+    <cellStyle name="Comma 6" xfId="61" xr:uid="{0FE471BE-2FBA-4404-B95D-6931BABBDB28}"/>
+    <cellStyle name="Comma 7" xfId="62" xr:uid="{4C0E6C87-E421-4FF8-87D8-C100EDDCD225}"/>
+    <cellStyle name="Comma 8" xfId="63" xr:uid="{C732750F-E409-4512-94C4-55C35DC24E28}"/>
+    <cellStyle name="Comma 9" xfId="64" xr:uid="{E68E36A5-D74D-459E-9D78-571D76D0ED10}"/>
+    <cellStyle name="Currency 2" xfId="65" xr:uid="{C11B0010-BC67-47D5-818D-8F265C7673B4}"/>
+    <cellStyle name="Currency 3" xfId="66" xr:uid="{9BADB6AD-7FFA-4FEF-ACBF-41FE593404E3}"/>
+    <cellStyle name="Currency 4" xfId="67" xr:uid="{D09DC60C-7B53-4E19-ADEB-993FE189F2C2}"/>
+    <cellStyle name="Currency 5" xfId="68" xr:uid="{39D87411-B4B5-415E-BC5A-FF36B6713F4B}"/>
+    <cellStyle name="Currency 6" xfId="69" xr:uid="{B931DAFF-BB63-4542-9E99-BE915886912D}"/>
+    <cellStyle name="Currency 7" xfId="70" xr:uid="{4248F5B4-2667-43D3-B9F6-06A70927278D}"/>
+    <cellStyle name="Currency 8" xfId="71" xr:uid="{EF9909A4-7B45-457E-A057-94B68CCE4C6E}"/>
+    <cellStyle name="Currency 8 2" xfId="186" xr:uid="{BB17ED8F-8478-471C-B76A-0D7E25ED340F}"/>
+    <cellStyle name="Currency 8 2 2" xfId="208" xr:uid="{1C02E58D-8150-4235-9F14-805F0F422B47}"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="252" xr:uid="{7EEBA85B-1AD5-41BA-80C6-CDA0427CD26D}"/>
+    <cellStyle name="Currency 8 2 2 2 2" xfId="340" xr:uid="{23EBB6C7-2CEB-4E25-8FC5-94FC51612CB0}"/>
+    <cellStyle name="Currency 8 2 2 3" xfId="296" xr:uid="{7D0E4414-8339-4248-94FB-C9585D140AAE}"/>
+    <cellStyle name="Currency 8 2 3" xfId="230" xr:uid="{0B87D6B1-9105-499F-8714-2677C8F6DC7B}"/>
+    <cellStyle name="Currency 8 2 3 2" xfId="318" xr:uid="{421E16D2-AED3-4371-9AC1-8239CEFF3699}"/>
+    <cellStyle name="Currency 8 2 4" xfId="274" xr:uid="{2302DAC0-182F-4BD7-8714-39A0CE542498}"/>
+    <cellStyle name="Currency 8 3" xfId="197" xr:uid="{16BD6F31-807E-4295-9538-98EA9A91ED73}"/>
+    <cellStyle name="Currency 8 3 2" xfId="241" xr:uid="{C0699CEC-207E-4B58-89F9-A1577B276A1B}"/>
+    <cellStyle name="Currency 8 3 2 2" xfId="329" xr:uid="{C342FCC7-59B0-4590-A1C8-710C63FBB7C6}"/>
+    <cellStyle name="Currency 8 3 3" xfId="285" xr:uid="{C211EC0C-9592-46F3-ADFE-3653B2363FDC}"/>
+    <cellStyle name="Currency 8 4" xfId="219" xr:uid="{3978B370-299A-4D5C-8BAE-82B19A13FFEF}"/>
+    <cellStyle name="Currency 8 4 2" xfId="307" xr:uid="{D7B432DE-E18D-490E-84B0-72398D1AC01B}"/>
+    <cellStyle name="Currency 8 5" xfId="263" xr:uid="{75AD36B3-B78F-48AB-A0DA-410FB7808EF9}"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading" xfId="72" xr:uid="{38F3C1AF-91BD-4863-AC10-542173B0E65C}"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="73" xr:uid="{BD4131BE-9E7F-4950-B9B4-2EA31D5BFDF5}"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading2" xfId="74" xr:uid="{5A5DEA7A-B49B-47D0-A7A7-60D0DD2AF2F5}"/>
+    <cellStyle name="Hyperlink 10" xfId="75" xr:uid="{1D5C6DB0-EA69-45AC-87D6-7AB563A78877}"/>
+    <cellStyle name="Hyperlink 10 2" xfId="76" xr:uid="{4291DD11-7E16-41E2-862A-BDA392F1ED6F}"/>
+    <cellStyle name="Hyperlink 10 3" xfId="77" xr:uid="{BD7CB9A6-E4B8-414B-A8B4-CEE7D96F6DE8}"/>
+    <cellStyle name="Hyperlink 11" xfId="78" xr:uid="{34302E81-B44C-46B4-B09A-9112DD8619AA}"/>
+    <cellStyle name="Hyperlink 11 2" xfId="79" xr:uid="{F7A7AC58-C684-45F2-BD89-30640B719F84}"/>
+    <cellStyle name="Hyperlink 11 3" xfId="80" xr:uid="{20E069A0-6ABC-4482-A559-63E7239874D7}"/>
+    <cellStyle name="Hyperlink 12" xfId="81" xr:uid="{F728484C-581D-46ED-A85E-D988A8DA7A8C}"/>
+    <cellStyle name="Hyperlink 12 2" xfId="82" xr:uid="{D0134B88-D126-422C-88EF-62B7606D0773}"/>
+    <cellStyle name="Hyperlink 12 3" xfId="83" xr:uid="{A0B0FF79-07AB-4C50-B0A5-F933EA03393D}"/>
+    <cellStyle name="Hyperlink 13" xfId="84" xr:uid="{00309BA9-7205-4E30-8874-538E6C2312A7}"/>
+    <cellStyle name="Hyperlink 13 2" xfId="85" xr:uid="{ED780412-95E8-4832-9918-0F39F1924CC8}"/>
+    <cellStyle name="Hyperlink 13 3" xfId="86" xr:uid="{54C52FDB-06E4-48CC-8059-23016989890D}"/>
+    <cellStyle name="Hyperlink 14" xfId="87" xr:uid="{F7C58E28-A220-4624-9CA5-779624039ABA}"/>
+    <cellStyle name="Hyperlink 14 2" xfId="88" xr:uid="{57847E19-74DA-4304-9F6D-FA7F55A66481}"/>
+    <cellStyle name="Hyperlink 14 3" xfId="89" xr:uid="{7430DD22-7BBA-4282-B3DD-779B901D6FE3}"/>
+    <cellStyle name="Hyperlink 15" xfId="90" xr:uid="{B766CA9A-5FA9-4CA8-9608-B6C494D46312}"/>
+    <cellStyle name="Hyperlink 15 2" xfId="91" xr:uid="{6FB136A2-574A-4E76-A209-A7C7C365F059}"/>
+    <cellStyle name="Hyperlink 15 3" xfId="92" xr:uid="{BAA6306D-2577-4BFF-B055-16A9D63825AE}"/>
+    <cellStyle name="Hyperlink 16" xfId="93" xr:uid="{AE766BC2-6063-4D33-99FD-ACEB700E082D}"/>
+    <cellStyle name="Hyperlink 16 2" xfId="94" xr:uid="{76D7A195-A7D0-4223-931E-16C942AD82A7}"/>
+    <cellStyle name="Hyperlink 16 3" xfId="95" xr:uid="{5EB5E69C-B73A-43E3-918D-240FED406236}"/>
+    <cellStyle name="Hyperlink 17" xfId="96" xr:uid="{9098504D-0101-4AE7-A4DE-8020779EB1CC}"/>
+    <cellStyle name="Hyperlink 17 2" xfId="97" xr:uid="{740F2FEC-6C6A-4A1E-8AAB-506201361967}"/>
+    <cellStyle name="Hyperlink 17 3" xfId="98" xr:uid="{850E2ACC-BBC7-4B9B-8B37-A948D63188EE}"/>
+    <cellStyle name="Hyperlink 18" xfId="99" xr:uid="{189E08DE-319B-45D1-B382-05C814B55F7C}"/>
+    <cellStyle name="Hyperlink 18 2" xfId="100" xr:uid="{24F88C7F-312F-4316-8C85-3CB857858FF2}"/>
+    <cellStyle name="Hyperlink 18 3" xfId="101" xr:uid="{1115D790-3100-4D5B-B66E-1548A1DF53F2}"/>
+    <cellStyle name="Hyperlink 19" xfId="102" xr:uid="{14A37067-D5F2-4CC0-A851-37F4B6CC829E}"/>
+    <cellStyle name="Hyperlink 19 2" xfId="103" xr:uid="{6AE0EFE3-E93C-4450-94A2-3C332F548F68}"/>
+    <cellStyle name="Hyperlink 19 3" xfId="104" xr:uid="{5CA65DA7-4248-48A7-A1CD-3B0ACEC1A240}"/>
+    <cellStyle name="Hyperlink 2" xfId="105" xr:uid="{7FD526D4-A407-48BB-BB44-F6045EFC2AF4}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="106" xr:uid="{886B438F-DC94-4F70-BB36-326DE6B8B9EE}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="107" xr:uid="{2F65411E-0B92-424F-BD2F-90D4F4140D11}"/>
+    <cellStyle name="Hyperlink 20" xfId="108" xr:uid="{B86CE68D-660A-4F70-AC8F-0660252B4825}"/>
+    <cellStyle name="Hyperlink 20 2" xfId="109" xr:uid="{725CC6D1-2FE2-4FB2-8E74-983EE46A2952}"/>
+    <cellStyle name="Hyperlink 20 3" xfId="110" xr:uid="{5AD84A92-4B24-4D70-9E32-A1CCF144D5F0}"/>
+    <cellStyle name="Hyperlink 21" xfId="111" xr:uid="{4CFA4988-942A-4F63-B90B-55AAAC88306E}"/>
+    <cellStyle name="Hyperlink 21 2" xfId="112" xr:uid="{DAEACA97-980F-4F2C-8310-D88425779EB4}"/>
+    <cellStyle name="Hyperlink 21 3" xfId="113" xr:uid="{B7E45310-23AF-45AF-B1B7-028A21100B6C}"/>
+    <cellStyle name="Hyperlink 22" xfId="114" xr:uid="{B7B791E8-37B0-4C77-B965-EBD630611193}"/>
+    <cellStyle name="Hyperlink 22 2" xfId="115" xr:uid="{40D257B9-B326-4CE0-AF57-6F7C3DC97357}"/>
+    <cellStyle name="Hyperlink 22 3" xfId="116" xr:uid="{CCCA824F-F4C4-4863-B4D4-2E898F8EEBF7}"/>
+    <cellStyle name="Hyperlink 23" xfId="117" xr:uid="{6990E124-6358-4138-BDB5-FBEE09250307}"/>
+    <cellStyle name="Hyperlink 23 2" xfId="118" xr:uid="{E56B5F88-E8C9-49F6-A3C0-2BC2FF596615}"/>
+    <cellStyle name="Hyperlink 23 3" xfId="119" xr:uid="{BB03379C-DCBD-4A0A-8321-A9FD451E7687}"/>
+    <cellStyle name="Hyperlink 24" xfId="120" xr:uid="{FD189446-A861-4500-B489-A343D8B96FEF}"/>
+    <cellStyle name="Hyperlink 25" xfId="121" xr:uid="{A654FDBA-7C5C-47E5-A332-1F832A7816CD}"/>
+    <cellStyle name="Hyperlink 26" xfId="122" xr:uid="{8D68C4D1-E569-415E-8518-E87EAE1BEF65}"/>
+    <cellStyle name="Hyperlink 27" xfId="123" xr:uid="{08D6A7B9-2947-491B-AFAF-496FB4B9BB3B}"/>
+    <cellStyle name="Hyperlink 28" xfId="124" xr:uid="{8AF0B29A-B880-418E-91AC-6F035D151C01}"/>
+    <cellStyle name="Hyperlink 29" xfId="125" xr:uid="{71066853-0788-4DC9-A4AB-3B77B7EE3794}"/>
+    <cellStyle name="Hyperlink 3" xfId="126" xr:uid="{536FD83A-CD64-4DEE-BB31-2258CF8251CC}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="127" xr:uid="{602EE2E3-2797-4127-AB05-D8D8DB654508}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="128" xr:uid="{8F4C007A-A13E-4685-8FCB-62F85300C2C9}"/>
+    <cellStyle name="Hyperlink 30" xfId="129" xr:uid="{6F5860C6-4303-45E4-8A60-140AF2741E5F}"/>
+    <cellStyle name="Hyperlink 31" xfId="130" xr:uid="{294311CB-D01F-466C-967A-F4F231B16122}"/>
+    <cellStyle name="Hyperlink 32" xfId="131" xr:uid="{39EA4C8E-FC77-4CB4-AD4E-46B312BD9D95}"/>
+    <cellStyle name="Hyperlink 33" xfId="132" xr:uid="{D0A56ADA-237A-4DB4-B94A-D0E0D7BBCCAD}"/>
+    <cellStyle name="Hyperlink 33 2" xfId="133" xr:uid="{1226E274-4464-43F2-B52E-F63C717FBB45}"/>
+    <cellStyle name="Hyperlink 33 3" xfId="134" xr:uid="{EFA1805C-6751-4B23-B76C-E2C6874E4A43}"/>
+    <cellStyle name="Hyperlink 34" xfId="135" xr:uid="{F0B6973B-6C85-4B4D-8610-CC9E8447363E}"/>
+    <cellStyle name="Hyperlink 34 2" xfId="136" xr:uid="{D924C6B2-ED29-41D2-9112-63B9D9CE9A29}"/>
+    <cellStyle name="Hyperlink 34 3" xfId="137" xr:uid="{C7545E45-A5BB-4BE7-B508-573329203A2A}"/>
+    <cellStyle name="Hyperlink 34 4" xfId="138" xr:uid="{C70BEB32-9AD1-413C-921E-4950190FDA78}"/>
+    <cellStyle name="Hyperlink 34 5" xfId="139" xr:uid="{5E0A3F2B-1B52-417B-8470-B5459221958B}"/>
+    <cellStyle name="Hyperlink 4" xfId="140" xr:uid="{4F1EBB5F-A8A0-4170-BF99-ACF4A456763B}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="141" xr:uid="{95A47FAE-ACC1-4BC3-B8A3-68CBF7DA9FE6}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="142" xr:uid="{B3088682-72EA-4476-A12B-60CBB3689838}"/>
+    <cellStyle name="Hyperlink 5" xfId="143" xr:uid="{C2DDA5D8-1850-42A6-A4F9-4FBB5B43CAC0}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="144" xr:uid="{803C28D5-F4BC-4D07-AB15-9F158955611D}"/>
+    <cellStyle name="Hyperlink 5 3" xfId="145" xr:uid="{F76FA56B-0D9A-47C9-B258-716B03FC9BED}"/>
+    <cellStyle name="Hyperlink 6" xfId="146" xr:uid="{60D419D3-D996-4C4F-819C-A92AF5F60652}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="147" xr:uid="{3497CFD9-75B5-4854-897E-2EA5B84760B6}"/>
+    <cellStyle name="Hyperlink 6 3" xfId="148" xr:uid="{EA405680-BA00-493E-9440-10D9254D9B9E}"/>
+    <cellStyle name="Hyperlink 7" xfId="149" xr:uid="{3A9690AF-3DA0-498E-99CA-87F0218DB8BD}"/>
+    <cellStyle name="Hyperlink 7 2" xfId="150" xr:uid="{D26B34FC-9CD0-4EF6-8DD3-30076AA0CD5C}"/>
+    <cellStyle name="Hyperlink 7 3" xfId="151" xr:uid="{E8D7F7DB-3FCA-4662-81C1-A7334F921386}"/>
+    <cellStyle name="Hyperlink 8" xfId="152" xr:uid="{D52D928C-C3D4-4B81-9AD1-D356C9064858}"/>
+    <cellStyle name="Hyperlink 8 2" xfId="153" xr:uid="{A78C3B8B-AE24-47CA-9FE3-95FDC7D4143D}"/>
+    <cellStyle name="Hyperlink 8 3" xfId="154" xr:uid="{D2CECA51-47F8-40C5-9C62-747FBEDE7E8A}"/>
+    <cellStyle name="Hyperlink 9" xfId="155" xr:uid="{5A08071B-B356-4B17-AD4B-4F1516A2EC19}"/>
+    <cellStyle name="Hyperlink 9 2" xfId="156" xr:uid="{9DC8A03C-AB05-482A-8657-DA0DFBD1A2E8}"/>
+    <cellStyle name="Hyperlink 9 3" xfId="157" xr:uid="{EAB873BA-7DB9-4C6F-BF4A-860AAD11E54B}"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input 2" xfId="158" xr:uid="{651173F8-B926-4D56-B45B-C593F4B5C248}"/>
+    <cellStyle name="Linked" xfId="159" xr:uid="{15CDA3DA-DDD7-4B1A-8D89-706C48EA1E21}"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{02429A40-3A1B-4B94-BCC9-C7A7A9C52960}"/>
+    <cellStyle name="Normal 2 2" xfId="42" xr:uid="{2E4BCD9B-C654-423B-810A-1AFE442297A8}"/>
+    <cellStyle name="Normal 2 2 2" xfId="160" xr:uid="{42B5AB21-479B-4407-8060-C2E12761EA35}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="187" xr:uid="{590C83CC-DD2B-490E-9976-67DA205262C4}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="209" xr:uid="{4EF9F958-C57E-40BA-8731-012DCC998E23}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="253" xr:uid="{5460980D-66BE-42BE-9872-15E878F3718C}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2 2" xfId="341" xr:uid="{84FA6D99-D00A-4B49-8649-606D7F5DE1DE}"/>
+    <cellStyle name="Normal 2 2 2 2 2 3" xfId="297" xr:uid="{A48806DF-53E5-4197-97BE-B0F618D1C805}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="231" xr:uid="{6D0C1A99-E1BB-485D-889D-81CF47303C01}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="319" xr:uid="{29F59773-636E-4EE3-B25B-F755C5FE3CBD}"/>
+    <cellStyle name="Normal 2 2 2 2 4" xfId="275" xr:uid="{0297B269-9EF5-4F2D-A6D0-5C20906B2F1E}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="198" xr:uid="{698DE400-B441-4C53-A6E4-5D2A09DCA24F}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="242" xr:uid="{4A650E8C-76AC-4D21-9B35-4B50286C5A9D}"/>
+    <cellStyle name="Normal 2 2 2 3 2 2" xfId="330" xr:uid="{0FAE0179-6A97-43BE-BBA0-4FB8F01173C7}"/>
+    <cellStyle name="Normal 2 2 2 3 3" xfId="286" xr:uid="{2F295D2D-BE02-4837-A1E4-856ECD440734}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="220" xr:uid="{BE7A7709-F661-4D6E-8B92-81C7722360AA}"/>
+    <cellStyle name="Normal 2 2 2 4 2" xfId="308" xr:uid="{B274E28A-120D-4502-A5FC-68E314BFD317}"/>
+    <cellStyle name="Normal 2 2 2 5" xfId="264" xr:uid="{0E7F09D0-ACC3-4091-A0EF-8757796FA9FA}"/>
+    <cellStyle name="Normal 3" xfId="161" xr:uid="{86F05CB3-878A-46F3-9DDF-9284C7E5E512}"/>
+    <cellStyle name="Normal 4" xfId="162" xr:uid="{2B27E720-8C43-48CB-B430-BA2EBDAED0DD}"/>
+    <cellStyle name="Normal 5" xfId="163" xr:uid="{72A7C98A-1C79-4127-8260-FC71CF5EE7D5}"/>
+    <cellStyle name="Normal 6" xfId="164" xr:uid="{FE556AE3-757B-4766-A5A5-45E512400D2C}"/>
+    <cellStyle name="Normal 6 2" xfId="188" xr:uid="{A78E3F1E-4850-424C-8C83-12C6A45C4074}"/>
+    <cellStyle name="Normal 6 2 2" xfId="210" xr:uid="{91C5520A-E41D-49EA-854F-023A4145787D}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="254" xr:uid="{7F11E6D2-F53D-4BC1-8922-6F5E2F5A49BB}"/>
+    <cellStyle name="Normal 6 2 2 2 2" xfId="342" xr:uid="{568A6A46-7EEE-4ADB-9656-B780812A4C05}"/>
+    <cellStyle name="Normal 6 2 2 3" xfId="298" xr:uid="{13E62045-0C1C-4BCB-A126-563904649B21}"/>
+    <cellStyle name="Normal 6 2 3" xfId="232" xr:uid="{96A4CBF4-F371-4702-B17F-C73CE1DF7B4D}"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="320" xr:uid="{977BC138-57EB-4CC0-971A-EAF5B52D1661}"/>
+    <cellStyle name="Normal 6 2 4" xfId="276" xr:uid="{84464F65-0CF2-4FB5-960B-796C80CA0B6C}"/>
+    <cellStyle name="Normal 6 3" xfId="199" xr:uid="{39564179-6B88-4C49-8621-F600DF952110}"/>
+    <cellStyle name="Normal 6 3 2" xfId="243" xr:uid="{627EE016-D040-4DE5-B217-6574BA6F48D6}"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="331" xr:uid="{B57D5EA9-D97B-4D8E-910A-A31A432A9A3C}"/>
+    <cellStyle name="Normal 6 3 3" xfId="287" xr:uid="{AB116090-EF6E-43DC-A734-C999DCEB2926}"/>
+    <cellStyle name="Normal 6 4" xfId="221" xr:uid="{8E9270C2-8755-408E-B783-88F8A988DA99}"/>
+    <cellStyle name="Normal 6 4 2" xfId="309" xr:uid="{C8ACC599-D310-4BC7-A1E5-0CB579526464}"/>
+    <cellStyle name="Normal 6 5" xfId="265" xr:uid="{7EA5644F-D614-48D0-B724-70B7BC92A93A}"/>
+    <cellStyle name="Normal 7" xfId="165" xr:uid="{3A6CB94F-2F0C-4088-A710-84EE561F1C74}"/>
+    <cellStyle name="Normal 8" xfId="166" xr:uid="{41C5CF8B-4102-4AA2-94AC-D5BB57C3F529}"/>
+    <cellStyle name="Normal Small" xfId="167" xr:uid="{6324BFA7-D721-4265-B7A8-3E293BBDC47D}"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="168" xr:uid="{3598EE5F-90D5-4DDD-B28D-0568D9FF346F}"/>
+    <cellStyle name="Percent 2 2" xfId="169" xr:uid="{88F1ABDA-C490-42E9-B5EB-6D1851A53212}"/>
+    <cellStyle name="Percent 2 3" xfId="170" xr:uid="{CFA83281-BAAF-4EF6-9C35-0E474AB46D1A}"/>
+    <cellStyle name="Percent 2 4" xfId="189" xr:uid="{EEF02F17-779F-4AD2-B655-63F6FDBBF0ED}"/>
+    <cellStyle name="Percent 2 4 2" xfId="211" xr:uid="{49C0C2A8-9BC0-45F4-BF1D-B0687CD43F53}"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="255" xr:uid="{7E28B32E-7B3B-41AA-844C-098F9243F1A7}"/>
+    <cellStyle name="Percent 2 4 2 2 2" xfId="343" xr:uid="{E65DAB33-7461-4C25-AB18-841331D88F25}"/>
+    <cellStyle name="Percent 2 4 2 3" xfId="299" xr:uid="{DF7859A9-6021-4F8C-9DD7-49FD731C600D}"/>
+    <cellStyle name="Percent 2 4 3" xfId="233" xr:uid="{A9FC1D9D-0F8B-4B46-BB9E-67A5A8480999}"/>
+    <cellStyle name="Percent 2 4 3 2" xfId="321" xr:uid="{3B90830D-F66C-47CF-8423-DCB6F477AFB7}"/>
+    <cellStyle name="Percent 2 4 4" xfId="277" xr:uid="{5789AAB6-A6AD-439D-BC41-2741045088D1}"/>
+    <cellStyle name="Percent 2 5" xfId="200" xr:uid="{EEF79D84-3BE1-4459-B67D-32BB02908F61}"/>
+    <cellStyle name="Percent 2 5 2" xfId="244" xr:uid="{280E3E01-C506-4E71-A3EC-63FBC70EA7CD}"/>
+    <cellStyle name="Percent 2 5 2 2" xfId="332" xr:uid="{BFBC3B3C-56BB-4885-ABDA-BA792F511348}"/>
+    <cellStyle name="Percent 2 5 3" xfId="288" xr:uid="{27A54F6B-8E8F-4076-9605-8AACCA7E0146}"/>
+    <cellStyle name="Percent 2 6" xfId="222" xr:uid="{D93F3D5C-1B12-4595-8E2D-1697A3697C66}"/>
+    <cellStyle name="Percent 2 6 2" xfId="310" xr:uid="{5123A4B9-F4E5-4364-A364-5F8159B8D411}"/>
+    <cellStyle name="Percent 2 7" xfId="266" xr:uid="{F0AE5494-4204-4BB6-BF35-6E68FA5DA421}"/>
+    <cellStyle name="Percent 3" xfId="171" xr:uid="{6269D736-2B69-49E8-B385-F658CBC1517C}"/>
+    <cellStyle name="Percent 3 2" xfId="172" xr:uid="{6ED2E363-2463-4270-9E4B-A41EFC687EB2}"/>
+    <cellStyle name="Results" xfId="173" xr:uid="{263CBBCF-4CBD-4093-B85C-DEB278198675}"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="174" xr:uid="{FA9B1710-0912-4EE7-B1A2-DC813E23279F}"/>
+    <cellStyle name="Title 3" xfId="175" xr:uid="{2DDBBFD9-99E6-4C33-94F6-C67D6795D81F}"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Unit" xfId="176" xr:uid="{80C16AE4-6DB5-4B3D-98C7-F05453F4B738}"/>
+    <cellStyle name="UserInput" xfId="177" xr:uid="{9B9B9150-2A8B-4A6A-AF90-6729683C902F}"/>
+    <cellStyle name="Variable" xfId="178" xr:uid="{1B86AD47-D964-460D-9368-7CDFEBDAE043}"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B057C30F-DB62-478B-80F6-64D899BE5415}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF3399"/>
@@ -863,14 +2258,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="4" width="16.86328125" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -916,7 +2311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -941,14 +2336,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -962,7 +2357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
@@ -976,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2025</v>
       </c>
@@ -990,7 +2385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2030</v>
       </c>
@@ -1004,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2035</v>
       </c>
@@ -1018,7 +2413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2040</v>
       </c>
@@ -1032,7 +2427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>2045</v>
       </c>
@@ -1046,7 +2441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2050</v>
       </c>
@@ -1060,7 +2455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -1074,7 +2469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>2025</v>
       </c>
@@ -1088,7 +2483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>2030</v>
       </c>
@@ -1102,7 +2497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
@@ -1116,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>2040</v>
       </c>
@@ -1130,7 +2525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>2045</v>
       </c>
@@ -1144,7 +2539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>2050</v>
       </c>
@@ -1165,816 +2560,1442 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="5">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="6">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="7" customFormat="1">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1">
+      <c r="A13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1">
+      <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1">
+      <c r="A21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="10">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D25B83-BD09-4826-A0C5-07C0037AF25E}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="10" width="20.85546875" customWidth="1"/>
+    <col min="13" max="19" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978FAC-F8A3-4A10-8299-10A36FF1B366}">
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="82.265625" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="6">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="6">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="6">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="6">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="7">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="7">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="8">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="8">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="9">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="11">
-        <v>11</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="12">
-        <v>6</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="3">
-        <v>18</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3">
-        <v>19</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="3">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="3">
-        <v>7</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="2">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="3">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="3">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="3">
-        <v>13</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="3">
-        <v>14</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF45206-B3CB-4CBE-A9B8-264DA40B7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8689821-C7D1-4E26-8713-E20FFBAEC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="178">
   <si>
     <t>Group Name</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Tech10</t>
   </si>
   <si>
-    <t>PumpedHydro</t>
-  </si>
-  <si>
-    <t>HydroGeneration</t>
-  </si>
-  <si>
     <t>periods</t>
   </si>
   <si>
@@ -526,6 +520,60 @@
   </si>
   <si>
     <t>tech</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>PumpedHydro_R3</t>
+  </si>
+  <si>
+    <t>HydroGeneration_R3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>PumpedHydro_R1</t>
+  </si>
+  <si>
+    <t>HydroGeneration_R1</t>
+  </si>
+  <si>
+    <t>PumpedHydro_R2</t>
+  </si>
+  <si>
+    <t>HydroGeneration_R2</t>
+  </si>
+  <si>
+    <t>LandWind_R1</t>
+  </si>
+  <si>
+    <t>GW- Assume no new pumped hydro is added above the already installed capacity. We have no capacity on R1</t>
+  </si>
+  <si>
+    <t>GW- Assume no new hydro is added above the already installed capacity. We have no capacity on R1</t>
+  </si>
+  <si>
+    <t>GW- Assume no new pumped hydro is added above the already installed capacity. We have no capacity on R2</t>
+  </si>
+  <si>
+    <t>GW- Assume no new hydro is added above the already installed capacity. We have no capacity on R2</t>
+  </si>
+  <si>
+    <t>LandWind_R2</t>
+  </si>
+  <si>
+    <t>LandWind_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Cap Values from NREL- wind analysis </t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1614,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,13 +1636,6 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="344">
@@ -2252,74 +2293,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="4" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2330,230 +2481,917 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C9527-1881-4D6D-BD71-38E11E56DCAB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+      <c r="B2" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2025</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" t="s">
+        <v>162</v>
       </c>
       <c r="C3" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2030</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>162</v>
       </c>
       <c r="C4" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2035</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2040</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>162</v>
       </c>
       <c r="C6" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>2045</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>162</v>
       </c>
       <c r="C7" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2050</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>162</v>
       </c>
       <c r="C8" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>163</v>
       </c>
       <c r="C9" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>2025</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>163</v>
       </c>
       <c r="C10" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>2030</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" t="s">
+        <v>163</v>
       </c>
       <c r="C11" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2035</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
+      <c r="B12" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>2040</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>2045</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>163</v>
       </c>
       <c r="C14" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>2050</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
+      <c r="B15" t="s">
+        <v>163</v>
       </c>
       <c r="C15" s="1">
         <v>2.0579999999999998</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="1">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2562,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -2574,912 +3412,912 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5">
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="5">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="6">
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="6">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="7">
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="8">
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="10" customFormat="1">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="10">
         <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="11" customFormat="1">
       <c r="A22" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="11">
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3505,34 +4343,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3540,31 +4378,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3572,19 +4410,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3592,13 +4430,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3606,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3614,7 +4452,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3622,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3630,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3650,52 +4488,52 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3708,293 +4546,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978FAC-F8A3-4A10-8299-10A36FF1B366}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
-        <v>161</v>
+      <c r="A1" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8689821-C7D1-4E26-8713-E20FFBAEC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B844C-8D17-49D1-AEF1-CF55F93A1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B844C-8D17-49D1-AEF1-CF55F93A1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B3737-44F8-40F0-91F5-7723DB5ABBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="186">
   <si>
     <t>Group Name</t>
   </si>
@@ -444,9 +444,6 @@
     <t>tab20</t>
   </si>
   <si>
-    <t>Set3</t>
-  </si>
-  <si>
     <t>Paired</t>
   </si>
   <si>
@@ -574,6 +571,33 @@
   </si>
   <si>
     <t xml:space="preserve">Max Cap Values from NREL- wind analysis </t>
+  </si>
+  <si>
+    <t>PV-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>PV-RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>GENERAL_CO2_CAP</t>
+  </si>
+  <si>
+    <t>ENERGY_INTERCHANGE</t>
+  </si>
+  <si>
+    <t>Tech Used to Represent Other Options For CO2 Capture</t>
+  </si>
+  <si>
+    <t>Interchange of Energy in/out of NC</t>
+  </si>
+  <si>
+    <t>#ffdf09</t>
+  </si>
+  <si>
+    <t>#f0fd1f</t>
+  </si>
+  <si>
+    <t>#b9ff2c</t>
   </si>
 </sst>
 </file>
@@ -870,7 +894,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,7 +1644,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1637,6 +1667,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="344">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2295,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2311,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2349,10 +2389,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2363,10 +2403,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2377,10 +2417,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
         <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2391,10 +2431,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2405,10 +2445,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -2419,10 +2459,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -2433,10 +2473,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2447,10 +2487,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -2461,10 +2501,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -2483,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C9527-1881-4D6D-BD71-38E11E56DCAB}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D64"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2513,7 +2553,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2527,7 +2567,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2541,7 +2581,7 @@
         <v>2030</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2555,7 +2595,7 @@
         <v>2035</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2569,7 +2609,7 @@
         <v>2040</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2583,7 +2623,7 @@
         <v>2045</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2597,7 +2637,7 @@
         <v>2050</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1">
         <v>9.5000000000000001E-2</v>
@@ -2611,7 +2651,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1">
         <v>2.0579999999999998</v>
@@ -2625,7 +2665,7 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1">
         <v>2.0579999999999998</v>
@@ -2639,7 +2679,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1">
         <v>2.0579999999999998</v>
@@ -2653,7 +2693,7 @@
         <v>2035</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1">
         <v>2.0579999999999998</v>
@@ -2667,7 +2707,7 @@
         <v>2040</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1">
         <v>2.0579999999999998</v>
@@ -2681,7 +2721,7 @@
         <v>2045</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1">
         <v>2.0579999999999998</v>
@@ -2695,7 +2735,7 @@
         <v>2050</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1">
         <v>2.0579999999999998</v>
@@ -2709,13 +2749,13 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2723,13 +2763,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2737,13 +2777,13 @@
         <v>2030</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2751,13 +2791,13 @@
         <v>2035</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2765,13 +2805,13 @@
         <v>2040</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2779,13 +2819,13 @@
         <v>2045</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2793,13 +2833,13 @@
         <v>2050</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2807,13 +2847,13 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2821,13 +2861,13 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2835,13 +2875,13 @@
         <v>2030</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2849,13 +2889,13 @@
         <v>2035</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2863,13 +2903,13 @@
         <v>2040</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2877,13 +2917,13 @@
         <v>2045</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2891,13 +2931,13 @@
         <v>2050</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2905,13 +2945,13 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2919,13 +2959,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2933,13 +2973,13 @@
         <v>2030</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2947,13 +2987,13 @@
         <v>2035</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2961,13 +3001,13 @@
         <v>2040</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2975,13 +3015,13 @@
         <v>2045</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2989,13 +3029,13 @@
         <v>2050</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3003,13 +3043,13 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3017,13 +3057,13 @@
         <v>2025</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3031,13 +3071,13 @@
         <v>2030</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3045,13 +3085,13 @@
         <v>2035</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3059,13 +3099,13 @@
         <v>2040</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3073,13 +3113,13 @@
         <v>2045</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3087,13 +3127,13 @@
         <v>2050</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3101,13 +3141,13 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1">
         <v>0.85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3115,13 +3155,13 @@
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1">
         <v>0.85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3129,13 +3169,13 @@
         <v>2030</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1">
         <v>0.85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3143,13 +3183,13 @@
         <v>2035</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" s="1">
         <v>0.85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3157,13 +3197,13 @@
         <v>2040</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="1">
         <v>0.85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3171,13 +3211,13 @@
         <v>2045</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="1">
         <v>0.85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3185,13 +3225,13 @@
         <v>2050</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="1">
         <v>0.85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3199,13 +3239,13 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1">
         <v>4.07</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3213,13 +3253,13 @@
         <v>2025</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="1">
         <v>4.07</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3227,13 +3267,13 @@
         <v>2030</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1">
         <v>4.07</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3241,13 +3281,13 @@
         <v>2035</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="1">
         <v>4.07</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3255,13 +3295,13 @@
         <v>2040</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1">
         <v>4.07</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3269,13 +3309,13 @@
         <v>2045</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="1">
         <v>4.07</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3283,13 +3323,13 @@
         <v>2050</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="1">
         <v>4.07</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3297,13 +3337,13 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1">
         <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3311,13 +3351,13 @@
         <v>2025</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="1">
         <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3325,13 +3365,13 @@
         <v>2030</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="1">
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3339,13 +3379,13 @@
         <v>2035</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1">
         <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3353,13 +3393,13 @@
         <v>2040</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1">
         <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3367,13 +3407,13 @@
         <v>2045</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="1">
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3381,13 +3421,13 @@
         <v>2050</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1">
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3398,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3638,11 +3678,11 @@
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="8">
-        <v>11</v>
+      <c r="B17" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="14">
+        <v>-1</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>92</v>
@@ -3695,7 +3735,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="10">
         <v>11</v>
@@ -3709,7 +3749,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="11">
         <v>6</v>
@@ -3970,31 +4010,31 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="41" spans="1:4" s="14" customFormat="1">
+      <c r="A41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="42" spans="1:4" s="14" customFormat="1">
+      <c r="A42" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4196,128 +4236,156 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4330,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D25B83-BD09-4826-A0C5-07C0037AF25E}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4343,34 +4411,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4409,9 +4477,15 @@
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
+      <c r="D3" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -4420,6 +4494,12 @@
       </c>
       <c r="G3" t="s">
         <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>27</v>
@@ -4429,11 +4509,29 @@
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" t="s">
         <v>30</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -4443,6 +4541,21 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="J5" t="s">
         <v>32</v>
       </c>
@@ -4451,6 +4564,12 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
@@ -4459,6 +4578,12 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
@@ -4467,6 +4592,9 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="J8" t="s">
         <v>42</v>
       </c>
@@ -4475,65 +4603,80 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +4689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978FAC-F8A3-4A10-8299-10A36FF1B366}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -4557,7 +4700,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B3737-44F8-40F0-91F5-7723DB5ABBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA1EBE-B289-4BC5-B8C8-60AAF9711E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="200">
   <si>
     <t>Group Name</t>
   </si>
@@ -598,6 +598,48 @@
   </si>
   <si>
     <t>#b9ff2c</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CT_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>COAL_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CT_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>COAL_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_CC_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_GT_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>BIT_ST_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_CC_EX_RFIT</t>
+  </si>
+  <si>
+    <t>NG_GT_EX_RFIT</t>
+  </si>
+  <si>
+    <t>BIT_ST_EX_RFIT</t>
   </si>
 </sst>
 </file>
@@ -894,7 +936,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1692,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,15 +1716,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="344">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2523,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C9527-1881-4D6D-BD71-38E11E56DCAB}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3438,15 +3478,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4386,6 +4427,160 @@
       </c>
       <c r="D67" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="15" customFormat="1">
+      <c r="A68" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="15" customFormat="1">
+      <c r="A69" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="15" customFormat="1">
+      <c r="A70" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="15" customFormat="1">
+      <c r="A71" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="15" customFormat="1">
+      <c r="A72" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="15" customFormat="1">
+      <c r="A73" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="15" customFormat="1">
+      <c r="A74" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="15" customFormat="1">
+      <c r="A75" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="15" customFormat="1">
+      <c r="A76" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="15" customFormat="1">
+      <c r="A77" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="15" customFormat="1">
+      <c r="A78" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="15" customFormat="1">
+      <c r="A79" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="15" customFormat="1">
+      <c r="A80" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="15" customFormat="1">
+      <c r="A81" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="15">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4399,13 +4594,15 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="10" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="10" width="20.85546875" customWidth="1"/>
     <col min="13" max="19" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4477,13 +4674,13 @@
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
@@ -4495,10 +4692,10 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -4509,28 +4706,28 @@
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" t="s">
         <v>66</v>
       </c>
       <c r="J4" t="s">
@@ -4541,19 +4738,19 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="J5" t="s">
@@ -4564,10 +4761,10 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
@@ -4578,10 +4775,10 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
@@ -4592,7 +4789,7 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
@@ -4603,10 +4800,10 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4614,10 +4811,10 @@
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4625,7 +4822,7 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4687,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978FAC-F8A3-4A10-8299-10A36FF1B366}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4978,6 +5175,86 @@
         <v>75</v>
       </c>
     </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA1EBE-B289-4BC5-B8C8-60AAF9711E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D56B7-EF73-47FF-AB7C-1A13E8D40A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="201">
   <si>
     <t>Group Name</t>
   </si>
@@ -582,15 +582,9 @@
     <t>GENERAL_CO2_CAP</t>
   </si>
   <si>
-    <t>ENERGY_INTERCHANGE</t>
-  </si>
-  <si>
     <t>Tech Used to Represent Other Options For CO2 Capture</t>
   </si>
   <si>
-    <t>Interchange of Energy in/out of NC</t>
-  </si>
-  <si>
     <t>#ffdf09</t>
   </si>
   <si>
@@ -640,6 +634,15 @@
   </si>
   <si>
     <t>BIT_ST_EX_RFIT</t>
+  </si>
+  <si>
+    <t>Import of Electricity out of the sate</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S2</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S1</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2379,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2563,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C9527-1881-4D6D-BD71-38E11E56DCAB}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3480,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F5A9-D905-4459-BBED-C585707C2B23}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A81"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3720,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="14">
         <v>-1</v>
@@ -4056,7 +4059,7 @@
         <v>177</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41" s="14">
         <v>-1</v>
@@ -4070,7 +4073,7 @@
         <v>178</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" s="14">
         <v>-1</v>
@@ -4412,12 +4415,12 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>180</v>
+      <c r="A67" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -4426,12 +4429,12 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="15" customFormat="1">
       <c r="A68" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>25</v>
@@ -4442,7 +4445,7 @@
     </row>
     <row r="69" spans="1:4" s="15" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>25</v>
@@ -4453,7 +4456,7 @@
     </row>
     <row r="70" spans="1:4" s="15" customFormat="1">
       <c r="A70" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>25</v>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="71" spans="1:4" s="15" customFormat="1">
       <c r="A71" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>25</v>
@@ -4475,7 +4478,7 @@
     </row>
     <row r="72" spans="1:4" s="15" customFormat="1">
       <c r="A72" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>25</v>
@@ -4486,7 +4489,7 @@
     </row>
     <row r="73" spans="1:4" s="15" customFormat="1">
       <c r="A73" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>25</v>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="74" spans="1:4" s="15" customFormat="1">
       <c r="A74" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>25</v>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="75" spans="1:4" s="15" customFormat="1">
       <c r="A75" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>25</v>
@@ -4519,7 +4522,7 @@
     </row>
     <row r="76" spans="1:4" s="15" customFormat="1">
       <c r="A76" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>25</v>
@@ -4530,7 +4533,7 @@
     </row>
     <row r="77" spans="1:4" s="15" customFormat="1">
       <c r="A77" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>25</v>
@@ -4541,7 +4544,7 @@
     </row>
     <row r="78" spans="1:4" s="15" customFormat="1">
       <c r="A78" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>25</v>
@@ -4552,7 +4555,7 @@
     </row>
     <row r="79" spans="1:4" s="15" customFormat="1">
       <c r="A79" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>25</v>
@@ -4563,7 +4566,7 @@
     </row>
     <row r="80" spans="1:4" s="15" customFormat="1">
       <c r="A80" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>25</v>
@@ -4574,7 +4577,7 @@
     </row>
     <row r="81" spans="1:3" s="15" customFormat="1">
       <c r="A81" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>25</v>
@@ -4593,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D25B83-BD09-4826-A0C5-07C0037AF25E}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4884,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978FAC-F8A3-4A10-8299-10A36FF1B366}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A72"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5181,78 +5184,83 @@
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>180</v>
+      <c r="A58" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>194</v>
+      <c r="A59" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
